--- a/sic/Actividades- CEUPS.xlsx
+++ b/sic/Actividades- CEUPS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="109">
   <si>
     <r>
       <rPr>
@@ -3114,6 +3114,12 @@
   </si>
   <si>
     <t>Area: CEUPS</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>DASDAS</t>
   </si>
 </sst>
 </file>
@@ -3344,6 +3350,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3368,15 +3383,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3733,58 +3739,58 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32" t="s">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="35" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
@@ -3827,16 +3833,16 @@
       <c r="P11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" s="32" t="s">
+      <c r="Q11" s="35" t="s">
         <v>3</v>
       </c>
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
@@ -4387,10 +4393,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4406,30 +4412,30 @@
     <col min="9" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -4437,7 +4443,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>68</v>
       </c>
@@ -4459,15 +4465,21 @@
       <c r="G5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="26" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -4483,11 +4495,11 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>2</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -4503,11 +4515,11 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>3</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -4523,11 +4535,11 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>4</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="26" t="s">
         <v>96</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -4543,11 +4555,11 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>5</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="26" t="s">
         <v>89</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -4563,11 +4575,11 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>6</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -4583,7 +4595,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>7</v>
       </c>
@@ -4603,11 +4615,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>8</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -4623,11 +4635,11 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>9</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="26" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -4643,11 +4655,11 @@
       <c r="G14" s="22"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>10</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="26" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -4663,11 +4675,11 @@
       <c r="G15" s="22"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>11</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="26" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -4687,7 +4699,7 @@
       <c r="A17" s="22">
         <v>12</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="26" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -4707,7 +4719,7 @@
       <c r="A18" s="22">
         <v>13</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="26" t="s">
         <v>85</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -4727,7 +4739,7 @@
       <c r="A19" s="22">
         <v>14</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="26" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -4747,7 +4759,7 @@
       <c r="A20" s="22">
         <v>15</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="26" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="22" t="s">
@@ -4767,7 +4779,7 @@
       <c r="A21" s="22">
         <v>16</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="26" t="s">
         <v>98</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -4787,7 +4799,7 @@
       <c r="A22" s="22">
         <v>17</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="26" t="s">
         <v>87</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -4807,7 +4819,7 @@
       <c r="A23" s="22">
         <v>18</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="26" t="s">
         <v>88</v>
       </c>
       <c r="C23" s="22" t="s">
@@ -4827,7 +4839,7 @@
       <c r="A24" s="22">
         <v>19</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="26" t="s">
         <v>89</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -4847,7 +4859,7 @@
       <c r="A25" s="22">
         <v>20</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="26" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="22" t="s">
@@ -4867,7 +4879,7 @@
       <c r="A26" s="22">
         <v>21</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -4879,7 +4891,7 @@
       <c r="A27" s="22">
         <v>22</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="27" t="s">
         <v>90</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -4899,7 +4911,7 @@
       <c r="A28" s="22">
         <v>23</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="26" t="s">
         <v>92</v>
       </c>
       <c r="C28" s="22" t="s">
@@ -4919,7 +4931,7 @@
       <c r="A29" s="22">
         <v>24</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="27" t="s">
         <v>93</v>
       </c>
       <c r="C29" s="22" t="s">
@@ -4939,7 +4951,7 @@
       <c r="A30" s="22">
         <v>25</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="26" t="s">
         <v>102</v>
       </c>
       <c r="C30" s="22" t="s">
@@ -4959,7 +4971,7 @@
       <c r="A31" s="22">
         <v>26</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="26" t="s">
         <v>89</v>
       </c>
       <c r="C31" s="22" t="s">
@@ -4979,7 +4991,7 @@
       <c r="A32" s="22">
         <v>27</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="26" t="s">
         <v>91</v>
       </c>
       <c r="C32" s="22" t="s">
@@ -4999,7 +5011,7 @@
       <c r="A33" s="22">
         <v>28</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="26" t="s">
         <v>101</v>
       </c>
       <c r="C33" s="22" t="s">
@@ -5019,7 +5031,7 @@
       <c r="A34" s="22">
         <v>29</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C34" s="22" t="s">
@@ -5039,7 +5051,7 @@
       <c r="A35" s="22">
         <v>30</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="26" t="s">
         <v>96</v>
       </c>
       <c r="C35" s="22" t="s">
@@ -5079,7 +5091,7 @@
       <c r="A37" s="22">
         <v>32</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="26" t="s">
         <v>97</v>
       </c>
       <c r="C37" s="22" t="s">
@@ -5099,7 +5111,7 @@
       <c r="A38" s="22">
         <v>33</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="26" t="s">
         <v>102</v>
       </c>
       <c r="C38" s="22" t="s">
@@ -5119,7 +5131,7 @@
       <c r="A39" s="22">
         <v>34</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="26" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="22" t="s">
@@ -5139,7 +5151,7 @@
       <c r="A40" s="22">
         <v>35</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C40" s="22" t="s">
@@ -5159,7 +5171,7 @@
       <c r="A41" s="22">
         <v>36</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="26" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="22" t="s">
@@ -5179,7 +5191,7 @@
       <c r="A42" s="22">
         <v>37</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="26" t="s">
         <v>104</v>
       </c>
       <c r="C42" s="22" t="s">
@@ -5199,7 +5211,7 @@
       <c r="A43" s="22">
         <v>38</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="26" t="s">
         <v>105</v>
       </c>
       <c r="C43" s="22" t="s">

--- a/sic/Actividades- CEUPS.xlsx
+++ b/sic/Actividades- CEUPS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -3120,6 +3120,9 @@
   </si>
   <si>
     <t>DASDAS</t>
+  </si>
+  <si>
+    <t>gfgfgh</t>
   </si>
 </sst>
 </file>
@@ -4393,10 +4396,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4412,10 +4415,10 @@
     <col min="9" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="24"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
         <v>106</v>
       </c>
@@ -4425,7 +4428,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="36" t="s">
         <v>67</v>
       </c>
@@ -4435,7 +4438,7 @@
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -4443,7 +4446,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>68</v>
       </c>
@@ -4474,8 +4477,11 @@
       <c r="J5" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -4495,7 +4501,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>2</v>
       </c>
@@ -4515,7 +4521,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>3</v>
       </c>
@@ -4535,7 +4541,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>4</v>
       </c>
@@ -4555,7 +4561,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>5</v>
       </c>
@@ -4575,7 +4581,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>6</v>
       </c>
@@ -4595,7 +4601,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>7</v>
       </c>
@@ -4615,7 +4621,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>8</v>
       </c>
@@ -4635,7 +4641,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>9</v>
       </c>
@@ -4655,7 +4661,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>10</v>
       </c>
@@ -4675,7 +4681,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>11</v>
       </c>

--- a/sic/Actividades- CEUPS.xlsx
+++ b/sic/Actividades- CEUPS.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanMiguel\Documents\GitHub\gmd\sic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="15480" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="12" windowWidth="15480" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CEUPS" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -3120,6 +3125,9 @@
   </si>
   <si>
     <t>DASDAS</t>
+  </si>
+  <si>
+    <t>juan carbajal</t>
   </si>
 </sst>
 </file>
@@ -3445,7 +3453,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3480,7 +3488,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3693,52 +3701,52 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" customWidth="1"/>
-    <col min="8" max="9" width="4.5703125" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" customWidth="1"/>
+    <col min="8" max="9" width="4.5546875" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
     <col min="16" max="16" width="7" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C5" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>0</v>
       </c>
@@ -3760,7 +3768,7 @@
       <c r="Q9" s="31"/>
       <c r="R9" s="31"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>1</v>
       </c>
@@ -3786,7 +3794,7 @@
       </c>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>1</v>
       </c>
@@ -3838,7 +3846,7 @@
       </c>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>18</v>
       </c>
@@ -3890,7 +3898,7 @@
       </c>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
@@ -3944,7 +3952,7 @@
       </c>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -3998,7 +4006,7 @@
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -4052,7 +4060,7 @@
       </c>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -4106,7 +4114,7 @@
       </c>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>63</v>
       </c>
@@ -4160,7 +4168,7 @@
       </c>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
@@ -4214,7 +4222,7 @@
       </c>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -4268,7 +4276,7 @@
       </c>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
@@ -4322,7 +4330,7 @@
       </c>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -4396,26 +4404,26 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="16"/>
+    <col min="7" max="7" width="8.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="24"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
         <v>106</v>
       </c>
@@ -4424,6 +4432,9 @@
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
+      <c r="H2" s="16" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="36" t="s">
@@ -4495,7 +4506,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>2</v>
       </c>
@@ -4515,7 +4526,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>3</v>
       </c>
@@ -4555,7 +4566,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>5</v>
       </c>
@@ -4615,7 +4626,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>8</v>
       </c>
@@ -4635,7 +4646,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>9</v>
       </c>
@@ -4655,7 +4666,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>10</v>
       </c>
@@ -4675,7 +4686,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>11</v>
       </c>
@@ -4695,7 +4706,7 @@
       <c r="G16" s="22"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>12</v>
       </c>
@@ -4715,7 +4726,7 @@
       <c r="G17" s="22"/>
       <c r="H17" s="17"/>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>13</v>
       </c>
@@ -4735,7 +4746,7 @@
       <c r="G18" s="22"/>
       <c r="H18" s="17"/>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>14</v>
       </c>
@@ -4835,7 +4846,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="17"/>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -4887,7 +4898,7 @@
       <c r="G26" s="22"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -4907,7 +4918,7 @@
       <c r="G27" s="22"/>
       <c r="H27" s="17"/>
     </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -4927,7 +4938,7 @@
       </c>
       <c r="H28" s="17"/>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -4967,7 +4978,7 @@
       </c>
       <c r="H30" s="17"/>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -4987,7 +4998,7 @@
       </c>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>27</v>
       </c>
@@ -5007,7 +5018,7 @@
       </c>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>28</v>
       </c>
@@ -5027,7 +5038,7 @@
       </c>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>29</v>
       </c>
@@ -5087,7 +5098,7 @@
       </c>
       <c r="H36" s="22"/>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>32</v>
       </c>
@@ -5127,7 +5138,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>34</v>
       </c>
@@ -5147,7 +5158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>35</v>
       </c>
@@ -5187,7 +5198,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>37</v>
       </c>
@@ -5243,7 +5254,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sic/Actividades- CEUPS.xlsx
+++ b/sic/Actividades- CEUPS.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JNAMUCHE\Documents\POSTGRADO\MAESTRIA URP\IV CICLO\ADM DE LA CONFIGURACION\gmd\sic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="15480" windowHeight="11640" activeTab="1"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -3120,6 +3125,9 @@
   </si>
   <si>
     <t>DASDAS</t>
+  </si>
+  <si>
+    <t>Hola</t>
   </si>
 </sst>
 </file>
@@ -3445,7 +3453,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3480,7 +3488,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4396,7 +4404,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4514,6 +4522,9 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
+      <c r="J7" s="16" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22">

--- a/sic/Actividades- CEUPS.xlsx
+++ b/sic/Actividades- CEUPS.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanMiguel\Documents\GitHub\gmd\sic\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="12" windowWidth="15480" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="15480" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CEUPS" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="111">
   <si>
     <r>
       <rPr>
@@ -3128,6 +3123,9 @@
   </si>
   <si>
     <t>juan carbajal</t>
+  </si>
+  <si>
+    <t>MARCO</t>
   </si>
 </sst>
 </file>
@@ -3453,7 +3451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3488,7 +3486,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3701,52 +3699,52 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="4.88671875" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" customWidth="1"/>
-    <col min="8" max="9" width="4.5546875" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" customWidth="1"/>
+    <col min="8" max="9" width="4.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" customWidth="1"/>
-    <col min="13" max="13" width="4.109375" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
     <col min="16" max="16" width="7" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C5" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>0</v>
       </c>
@@ -3768,7 +3766,7 @@
       <c r="Q9" s="31"/>
       <c r="R9" s="31"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>1</v>
       </c>
@@ -3794,7 +3792,7 @@
       </c>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>1</v>
       </c>
@@ -3846,7 +3844,7 @@
       </c>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>18</v>
       </c>
@@ -3898,7 +3896,7 @@
       </c>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
@@ -3952,7 +3950,7 @@
       </c>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -4006,7 +4004,7 @@
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -4060,7 +4058,7 @@
       </c>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -4114,7 +4112,7 @@
       </c>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>63</v>
       </c>
@@ -4168,7 +4166,7 @@
       </c>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
@@ -4222,7 +4220,7 @@
       </c>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -4276,7 +4274,7 @@
       </c>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
@@ -4330,7 +4328,7 @@
       </c>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -4401,29 +4399,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="16"/>
+    <col min="7" max="7" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B1" s="24"/>
     </row>
-    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="17.45" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
         <v>106</v>
       </c>
@@ -4436,7 +4434,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="36" t="s">
         <v>67</v>
       </c>
@@ -4446,7 +4444,7 @@
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -4454,7 +4452,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>68</v>
       </c>
@@ -4485,8 +4483,11 @@
       <c r="J5" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -4506,7 +4507,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>2</v>
       </c>
@@ -4526,7 +4527,7 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>3</v>
       </c>
@@ -4546,7 +4547,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>4</v>
       </c>
@@ -4566,7 +4567,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>5</v>
       </c>
@@ -4586,7 +4587,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>6</v>
       </c>
@@ -4606,7 +4607,7 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>7</v>
       </c>
@@ -4626,7 +4627,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="41.45" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>8</v>
       </c>
@@ -4646,7 +4647,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>9</v>
       </c>
@@ -4666,7 +4667,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>10</v>
       </c>
@@ -4686,7 +4687,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="41.45" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>11</v>
       </c>
@@ -4706,7 +4707,7 @@
       <c r="G16" s="22"/>
       <c r="H16" s="17"/>
     </row>
-    <row r="17" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="41.45" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>12</v>
       </c>
@@ -4746,7 +4747,7 @@
       <c r="G18" s="22"/>
       <c r="H18" s="17"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>14</v>
       </c>
@@ -4846,7 +4847,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="17"/>
     </row>
-    <row r="24" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -4898,7 +4899,7 @@
       <c r="G26" s="22"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="27" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -4918,7 +4919,7 @@
       <c r="G27" s="22"/>
       <c r="H27" s="17"/>
     </row>
-    <row r="28" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -4938,7 +4939,7 @@
       </c>
       <c r="H28" s="17"/>
     </row>
-    <row r="29" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -4978,7 +4979,7 @@
       </c>
       <c r="H30" s="17"/>
     </row>
-    <row r="31" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -4998,7 +4999,7 @@
       </c>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>27</v>
       </c>
@@ -5018,7 +5019,7 @@
       </c>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>28</v>
       </c>
@@ -5038,7 +5039,7 @@
       </c>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>29</v>
       </c>
@@ -5098,7 +5099,7 @@
       </c>
       <c r="H36" s="22"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>32</v>
       </c>
@@ -5138,7 +5139,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>34</v>
       </c>
@@ -5158,7 +5159,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>35</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>37</v>
       </c>
@@ -5254,7 +5255,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sic/Actividades- CEUPS.xlsx
+++ b/sic/Actividades- CEUPS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="15480" windowHeight="11640" activeTab="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="111">
   <si>
     <r>
       <rPr>
@@ -3123,6 +3123,9 @@
   </si>
   <si>
     <t>gfgfgh</t>
+  </si>
+  <si>
+    <t>eddy</t>
   </si>
 </sst>
 </file>
@@ -4399,7 +4402,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4445,6 +4448,9 @@
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
+      <c r="J4" s="16" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
